--- a/DataCleaning/track.xlsx
+++ b/DataCleaning/track.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/0gKdP7vj37EabSA4PZuVrn'}, 'href': 'https://api.spotify.com/v1/artists/0gKdP7vj37EabSA4PZuVrn', 'id': '0gKdP7vj37EabSA4PZuVrn', 'name': 'Cloke', 'type': 'artist', 'uri': 'spotify:artist:0gKdP7vj37EabSA4PZuVrn'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/3qI7YPn8H0ukCpOzlJS3jh'}, 'href': 'https://api.spotify.com/v1/albums/3qI7YPn8H0ukCpOzlJS3jh', 'id': '3qI7YPn8H0ukCpOzlJS3jh', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273035ec317112a824562c306b0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02035ec317112a824562c306b0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851035ec317112a824562c306b0', 'width': 64}], 'is_playable': True, 'name': 'So Innocent', 'release_date': '2023-02-22', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:3qI7YPn8H0ukCpOzlJS3jh'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/0gKdP7vj37EabSA4PZuVrn'}, 'href': 'https://api.spotify.com/v1/artists/0gKdP7vj37EabSA4PZuVrn', 'id': '0gKdP7vj37EabSA4PZuVrn', 'name': 'Cloke', 'type': 'artist', 'uri': 'spotify:artist:0gKdP7vj37EabSA4PZuVrn'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/3qI7YPn8H0ukCpOzlJS3jh'}, 'href': 'https://api.spotify.com/v1/albums/3qI7YPn8H0ukCpOzlJS3jh', 'id': '3qI7YPn8H0ukCpOzlJS3jh', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273035ec317112a824562c306b0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02035ec317112a824562c306b0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851035ec317112a824562c306b0', 'width': 64}], 'name': 'So Innocent', 'release_date': '2023-02-22', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:3qI7YPn8H0ukCpOzlJS3jh'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2uYWxilOVlUdk4oV9DvwqK'}, 'href': 'https://api.spotify.com/v1/artists/2uYWxilOVlUdk4oV9DvwqK', 'id': '2uYWxilOVlUdk4oV9DvwqK', 'name': 'Mitski', 'type': 'artist', 'uri': 'spotify:artist:2uYWxilOVlUdk4oV9DvwqK'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/42cH7mrkfljkqkxA2Ip9Xq'}, 'href': 'https://api.spotify.com/v1/albums/42cH7mrkfljkqkxA2Ip9Xq', 'id': '42cH7mrkfljkqkxA2Ip9Xq', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273c428f67b4a9b7e1114dfc117', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02c428f67b4a9b7e1114dfc117', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851c428f67b4a9b7e1114dfc117', 'width': 64}], 'is_playable': True, 'name': 'Be the Cowboy', 'release_date': '2018-08-17', 'release_date_precision': 'day', 'total_tracks': 14, 'type': 'album', 'uri': 'spotify:album:42cH7mrkfljkqkxA2Ip9Xq'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2uYWxilOVlUdk4oV9DvwqK'}, 'href': 'https://api.spotify.com/v1/artists/2uYWxilOVlUdk4oV9DvwqK', 'id': '2uYWxilOVlUdk4oV9DvwqK', 'name': 'Mitski', 'type': 'artist', 'uri': 'spotify:artist:2uYWxilOVlUdk4oV9DvwqK'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/42cH7mrkfljkqkxA2Ip9Xq'}, 'href': 'https://api.spotify.com/v1/albums/42cH7mrkfljkqkxA2Ip9Xq', 'id': '42cH7mrkfljkqkxA2Ip9Xq', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273c428f67b4a9b7e1114dfc117', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02c428f67b4a9b7e1114dfc117', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851c428f67b4a9b7e1114dfc117', 'width': 64}], 'name': 'Be the Cowboy', 'release_date': '2018-08-17', 'release_date_precision': 'day', 'total_tracks': 14, 'type': 'album', 'uri': 'spotify:album:42cH7mrkfljkqkxA2Ip9Xq'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2Ru6erK9heeCeWQDx0sDmR'}, 'href': 'https://api.spotify.com/v1/artists/2Ru6erK9heeCeWQDx0sDmR', 'id': '2Ru6erK9heeCeWQDx0sDmR', 'name': 'Sparky Deathcap', 'type': 'artist', 'uri': 'spotify:artist:2Ru6erK9heeCeWQDx0sDmR'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/2MUnPlYdNix2siWwPa22eo'}, 'href': 'https://api.spotify.com/v1/albums/2MUnPlYdNix2siWwPa22eo', 'id': '2MUnPlYdNix2siWwPa22eo', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737597667a3b22f8382898d98e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027597667a3b22f8382898d98e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517597667a3b22f8382898d98e', 'width': 64}], 'is_playable': True, 'name': 'September', 'release_date': '2009', 'release_date_precision': 'year', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:2MUnPlYdNix2siWwPa22eo'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2Ru6erK9heeCeWQDx0sDmR'}, 'href': 'https://api.spotify.com/v1/artists/2Ru6erK9heeCeWQDx0sDmR', 'id': '2Ru6erK9heeCeWQDx0sDmR', 'name': 'Sparky Deathcap', 'type': 'artist', 'uri': 'spotify:artist:2Ru6erK9heeCeWQDx0sDmR'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/2MUnPlYdNix2siWwPa22eo'}, 'href': 'https://api.spotify.com/v1/albums/2MUnPlYdNix2siWwPa22eo', 'id': '2MUnPlYdNix2siWwPa22eo', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737597667a3b22f8382898d98e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027597667a3b22f8382898d98e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517597667a3b22f8382898d98e', 'width': 64}], 'name': 'September', 'release_date': '2009', 'release_date_precision': 'year', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:2MUnPlYdNix2siWwPa22eo'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/77NQclqFwTZe98FzGpHsIb'}, 'href': 'https://api.spotify.com/v1/artists/77NQclqFwTZe98FzGpHsIb', 'id': '77NQclqFwTZe98FzGpHsIb', 'name': 'Sfven', 'type': 'artist', 'uri': 'spotify:artist:77NQclqFwTZe98FzGpHsIb'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5n1cTgcLYpugGWHNQJqAba'}, 'href': 'https://api.spotify.com/v1/albums/5n1cTgcLYpugGWHNQJqAba', 'id': '5n1cTgcLYpugGWHNQJqAba', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732639916b737a11e4f6e39260', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022639916b737a11e4f6e39260', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512639916b737a11e4f6e39260', 'width': 64}], 'is_playable': True, 'name': 'forest avenue', 'release_date': '2022-02-04', 'release_date_precision': 'day', 'total_tracks': 12, 'type': 'album', 'uri': 'spotify:album:5n1cTgcLYpugGWHNQJqAba'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/77NQclqFwTZe98FzGpHsIb'}, 'href': 'https://api.spotify.com/v1/artists/77NQclqFwTZe98FzGpHsIb', 'id': '77NQclqFwTZe98FzGpHsIb', 'name': 'Sfven', 'type': 'artist', 'uri': 'spotify:artist:77NQclqFwTZe98FzGpHsIb'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5n1cTgcLYpugGWHNQJqAba'}, 'href': 'https://api.spotify.com/v1/albums/5n1cTgcLYpugGWHNQJqAba', 'id': '5n1cTgcLYpugGWHNQJqAba', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732639916b737a11e4f6e39260', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022639916b737a11e4f6e39260', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512639916b737a11e4f6e39260', 'width': 64}], 'name': 'forest avenue', 'release_date': '2022-02-04', 'release_date_precision': 'day', 'total_tracks': 12, 'type': 'album', 'uri': 'spotify:album:5n1cTgcLYpugGWHNQJqAba'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2z6JjrrJKNLilqlx8mlxcc'}, 'href': 'https://api.spotify.com/v1/artists/2z6JjrrJKNLilqlx8mlxcc', 'id': '2z6JjrrJKNLilqlx8mlxcc', 'name': 'Litany', 'type': 'artist', 'uri': 'spotify:artist:2z6JjrrJKNLilqlx8mlxcc'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7IWXZKQU9nUC3ae508E46p'}, 'href': 'https://api.spotify.com/v1/albums/7IWXZKQU9nUC3ae508E46p', 'id': '7IWXZKQU9nUC3ae508E46p', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273785715891c84ceab85c7f3f0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02785715891c84ceab85c7f3f0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851785715891c84ceab85c7f3f0', 'width': 64}], 'is_playable': True, 'name': 'Adult Movies', 'release_date': '2021-08-12', 'release_date_precision': 'day', 'total_tracks': 5, 'type': 'album', 'uri': 'spotify:album:7IWXZKQU9nUC3ae508E46p'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2z6JjrrJKNLilqlx8mlxcc'}, 'href': 'https://api.spotify.com/v1/artists/2z6JjrrJKNLilqlx8mlxcc', 'id': '2z6JjrrJKNLilqlx8mlxcc', 'name': 'Litany', 'type': 'artist', 'uri': 'spotify:artist:2z6JjrrJKNLilqlx8mlxcc'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7IWXZKQU9nUC3ae508E46p'}, 'href': 'https://api.spotify.com/v1/albums/7IWXZKQU9nUC3ae508E46p', 'id': '7IWXZKQU9nUC3ae508E46p', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273785715891c84ceab85c7f3f0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02785715891c84ceab85c7f3f0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851785715891c84ceab85c7f3f0', 'width': 64}], 'name': 'Adult Movies', 'release_date': '2021-08-12', 'release_date_precision': 'day', 'total_tracks': 5, 'type': 'album', 'uri': 'spotify:album:7IWXZKQU9nUC3ae508E46p'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6l9qERC6dfJQkEz5oaWe19'}, 'href': 'https://api.spotify.com/v1/artists/6l9qERC6dfJQkEz5oaWe19', 'id': '6l9qERC6dfJQkEz5oaWe19', 'name': 'Slim &amp; The Beast', 'type': 'artist', 'uri': 'spotify:artist:6l9qERC6dfJQkEz5oaWe19'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/5SDM4jCHSGHxJ9ropBJibB'}, 'href': 'https://api.spotify.com/v1/albums/5SDM4jCHSGHxJ9ropBJibB', 'id': '5SDM4jCHSGHxJ9ropBJibB', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273a9212ccbd377bb6939c844a2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02a9212ccbd377bb6939c844a2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851a9212ccbd377bb6939c844a2', 'width': 64}], 'is_playable': True, 'name': 'Lisbon', 'release_date': '2019-07-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5SDM4jCHSGHxJ9ropBJibB'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6l9qERC6dfJQkEz5oaWe19'}, 'href': 'https://api.spotify.com/v1/artists/6l9qERC6dfJQkEz5oaWe19', 'id': '6l9qERC6dfJQkEz5oaWe19', 'name': 'Slim &amp; The Beast', 'type': 'artist', 'uri': 'spotify:artist:6l9qERC6dfJQkEz5oaWe19'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/5SDM4jCHSGHxJ9ropBJibB'}, 'href': 'https://api.spotify.com/v1/albums/5SDM4jCHSGHxJ9ropBJibB', 'id': '5SDM4jCHSGHxJ9ropBJibB', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273a9212ccbd377bb6939c844a2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02a9212ccbd377bb6939c844a2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851a9212ccbd377bb6939c844a2', 'width': 64}], 'name': 'Lisbon', 'release_date': '2019-07-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5SDM4jCHSGHxJ9ropBJibB'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3uCltoxNuL9ErT2V8tSyXh'}, 'href': 'https://api.spotify.com/v1/artists/3uCltoxNuL9ErT2V8tSyXh', 'id': '3uCltoxNuL9ErT2V8tSyXh', 'name': 'RÜDE CÅT', 'type': 'artist', 'uri': 'spotify:artist:3uCltoxNuL9ErT2V8tSyXh'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1PH08Z1XobvRyrNZD8DMpC'}, 'href': 'https://api.spotify.com/v1/albums/1PH08Z1XobvRyrNZD8DMpC', 'id': '1PH08Z1XobvRyrNZD8DMpC', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc39c72cc6ed382b1e53d6f3', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc39c72cc6ed382b1e53d6f3', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc39c72cc6ed382b1e53d6f3', 'width': 64}], 'is_playable': True, 'name': 'Homesick', 'release_date': '2020-08-28', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1PH08Z1XobvRyrNZD8DMpC'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3uCltoxNuL9ErT2V8tSyXh'}, 'href': 'https://api.spotify.com/v1/artists/3uCltoxNuL9ErT2V8tSyXh', 'id': '3uCltoxNuL9ErT2V8tSyXh', 'name': 'RÜDE CÅT', 'type': 'artist', 'uri': 'spotify:artist:3uCltoxNuL9ErT2V8tSyXh'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/1PH08Z1XobvRyrNZD8DMpC'}, 'href': 'https://api.spotify.com/v1/albums/1PH08Z1XobvRyrNZD8DMpC', 'id': '1PH08Z1XobvRyrNZD8DMpC', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc39c72cc6ed382b1e53d6f3', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc39c72cc6ed382b1e53d6f3', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc39c72cc6ed382b1e53d6f3', 'width': 64}], 'name': 'Homesick', 'release_date': '2020-08-28', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1PH08Z1XobvRyrNZD8DMpC'}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['AR', 'AU', 'AT', 'BE', 'BO', 'BR', 'BG', 'CA', 'CL', 'CO', 'CR', 'CY', 'CZ', 'DK', 'DO', 'DE', 'EC', 'EE', 'SV', 'FI', 'FR', 'GR', 'GT', 'HN', 'HK', 'HU', 'IS', 'IE', 'IT', 'LV', 'LT', 'LU', 'MY', 'MT', 'MX', 'NL', 'NZ', 'NI', 'NO', 'PA', 'PY', 'PE', 'PH', 'PL', 'PT', 'SG', 'SK', 'ES', 'SE', 'CH', 'TW', 'UY', 'US', 'GB', 'AD', 'LI', 'MC', 'ID', 'JP', 'TH', 'VN', 'RO', 'IL', 'ZA', 'SA', 'AE', 'BH', 'QA', 'OM', 'KW', 'EG', 'MA', 'DZ', 'TN', 'LB', 'JO', 'PS', 'IN', 'KZ', 'MD', 'UA', 'AL', 'BA', 'HR', 'ME', 'MK', 'RS', 'SI', 'KR', 'BD', 'PK', 'LK', 'GH', 'KE', 'NG', 'TZ', 'UG', 'AG', 'AM', 'BS', 'BB', 'BZ', 'BT', 'BW', 'BF', 'CV', 'CW', 'DM', 'FJ', 'GM', 'GE', 'GD', 'GW', 'GY', 'HT', 'JM', 'KI', 'LS', 'LR', 'MW', 'MV', 'ML', 'MH', 'FM', 'NA', 'NR', 'NE', 'PW', 'PG', 'WS', 'SM', 'ST', 'SN', 'SC', 'SL', 'SB', 'KN', 'LC', 'VC', 'SR', 'TL', 'TO', 'TT', 'TV', 'VU', 'AZ', 'BN', 'BI', 'KH', 'CM', 'TD', 'KM', 'GQ', 'SZ', 'GA', 'GN', 'KG', 'LA', 'MO', 'MR', 'MN', 'NP', 'RW', 'TG', 'UZ', 'ZW', 'BJ', 'MG', 'MU', 'MZ', 'AO', 'CI', 'DJ', 'ZM', 'CD', 'CG', 'IQ', 'LY', 'TJ', 'VE', 'ET', 'XK']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1037,13 +1037,9 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://p.scdn.co/mp3-preview/604d1dfd49de0e60baf231ca3a3650089426e353?cid=779ed5b4de6141a5a256aa58005d47ee</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>1</v>
       </c>
@@ -1064,7 +1060,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7ItbAZITSFxSy5LJChXe18'}, 'href': 'https://api.spotify.com/v1/artists/7ItbAZITSFxSy5LJChXe18', 'id': '7ItbAZITSFxSy5LJChXe18', 'name': 'ford.', 'type': 'artist', 'uri': 'spotify:artist:7ItbAZITSFxSy5LJChXe18'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0BEmO9IoNIkhjJ2xNJClkE'}, 'href': 'https://api.spotify.com/v1/albums/0BEmO9IoNIkhjJ2xNJClkE', 'id': '0BEmO9IoNIkhjJ2xNJClkE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737b477b519e2c35ee4b590b33', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027b477b519e2c35ee4b590b33', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517b477b519e2c35ee4b590b33', 'width': 64}], 'is_playable': True, 'name': 'The Color of Nothing (Reprise)', 'release_date': '2021-05-18', 'release_date_precision': 'day', 'total_tracks': 9, 'type': 'album', 'uri': 'spotify:album:0BEmO9IoNIkhjJ2xNJClkE'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7ItbAZITSFxSy5LJChXe18'}, 'href': 'https://api.spotify.com/v1/artists/7ItbAZITSFxSy5LJChXe18', 'id': '7ItbAZITSFxSy5LJChXe18', 'name': 'ford.', 'type': 'artist', 'uri': 'spotify:artist:7ItbAZITSFxSy5LJChXe18'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0BEmO9IoNIkhjJ2xNJClkE'}, 'href': 'https://api.spotify.com/v1/albums/0BEmO9IoNIkhjJ2xNJClkE', 'id': '0BEmO9IoNIkhjJ2xNJClkE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737b477b519e2c35ee4b590b33', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027b477b519e2c35ee4b590b33', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517b477b519e2c35ee4b590b33', 'width': 64}], 'name': 'The Color of Nothing (Reprise)', 'release_date': '2021-05-18', 'release_date_precision': 'day', 'total_tracks': 9, 'type': 'album', 'uri': 'spotify:album:0BEmO9IoNIkhjJ2xNJClkE'}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1115,7 +1111,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1142,7 +1138,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4KJ6jujcNPzOyhdNoiNftp'}, 'href': 'https://api.spotify.com/v1/artists/4KJ6jujcNPzOyhdNoiNftp', 'id': '4KJ6jujcNPzOyhdNoiNftp', 'name': 'lovelytheband', 'type': 'artist', 'uri': 'spotify:artist:4KJ6jujcNPzOyhdNoiNftp'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6JFD9WU1ZSYZOJlDpRtZ71'}, 'href': 'https://api.spotify.com/v1/albums/6JFD9WU1ZSYZOJlDpRtZ71', 'id': '6JFD9WU1ZSYZOJlDpRtZ71', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273d1d61807e8d5d6d21602753f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02d1d61807e8d5d6d21602753f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851d1d61807e8d5d6d21602753f', 'width': 64}], 'is_playable': True, 'name': 'sail away', 'release_date': '2022-06-24', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:6JFD9WU1ZSYZOJlDpRtZ71'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4KJ6jujcNPzOyhdNoiNftp'}, 'href': 'https://api.spotify.com/v1/artists/4KJ6jujcNPzOyhdNoiNftp', 'id': '4KJ6jujcNPzOyhdNoiNftp', 'name': 'lovelytheband', 'type': 'artist', 'uri': 'spotify:artist:4KJ6jujcNPzOyhdNoiNftp'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6JFD9WU1ZSYZOJlDpRtZ71'}, 'href': 'https://api.spotify.com/v1/albums/6JFD9WU1ZSYZOJlDpRtZ71', 'id': '6JFD9WU1ZSYZOJlDpRtZ71', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273d1d61807e8d5d6d21602753f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02d1d61807e8d5d6d21602753f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851d1d61807e8d5d6d21602753f', 'width': 64}], 'name': 'sail away', 'release_date': '2022-06-24', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:6JFD9WU1ZSYZOJlDpRtZ71'}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1193,7 +1189,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1220,7 +1216,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4BX7bOS5nj3842rKfEnTIg'}, 'href': 'https://api.spotify.com/v1/artists/4BX7bOS5nj3842rKfEnTIg', 'id': '4BX7bOS5nj3842rKfEnTIg', 'name': 'Ryan Leahan', 'type': 'artist', 'uri': 'spotify:artist:4BX7bOS5nj3842rKfEnTIg'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1CUiK3PNtbzDU7bmRH1MHE'}, 'href': 'https://api.spotify.com/v1/albums/1CUiK3PNtbzDU7bmRH1MHE', 'id': '1CUiK3PNtbzDU7bmRH1MHE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736b2816ec942610bca7d7ea8b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026b2816ec942610bca7d7ea8b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516b2816ec942610bca7d7ea8b', 'width': 64}], 'is_playable': True, 'name': 'spark!', 'release_date': '2021-07-23', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1CUiK3PNtbzDU7bmRH1MHE'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4BX7bOS5nj3842rKfEnTIg'}, 'href': 'https://api.spotify.com/v1/artists/4BX7bOS5nj3842rKfEnTIg', 'id': '4BX7bOS5nj3842rKfEnTIg', 'name': 'Ryan Leahan', 'type': 'artist', 'uri': 'spotify:artist:4BX7bOS5nj3842rKfEnTIg'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1CUiK3PNtbzDU7bmRH1MHE'}, 'href': 'https://api.spotify.com/v1/albums/1CUiK3PNtbzDU7bmRH1MHE', 'id': '1CUiK3PNtbzDU7bmRH1MHE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736b2816ec942610bca7d7ea8b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026b2816ec942610bca7d7ea8b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516b2816ec942610bca7d7ea8b', 'width': 64}], 'name': 'spark!', 'release_date': '2021-07-23', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1CUiK3PNtbzDU7bmRH1MHE'}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1271,7 +1267,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,7 +1294,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2FXC3k01G6Gw61bmprjgqS'}, 'href': 'https://api.spotify.com/v1/artists/2FXC3k01G6Gw61bmprjgqS', 'id': '2FXC3k01G6Gw61bmprjgqS', 'name': 'Hozier', 'type': 'artist', 'uri': 'spotify:artist:2FXC3k01G6Gw61bmprjgqS'}], 'available_markets': ['AU', 'CA', 'US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4Pv7m8D82A1Xun7xNCKZjJ'}, 'href': 'https://api.spotify.com/v1/albums/4Pv7m8D82A1Xun7xNCKZjJ', 'id': '4Pv7m8D82A1Xun7xNCKZjJ', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2734ca68d59a4a29c856a4a39c2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e024ca68d59a4a29c856a4a39c2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048514ca68d59a4a29c856a4a39c2', 'width': 64}], 'is_playable': True, 'name': 'Hozier (Expanded Edition)', 'release_date': '2014-09-19', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:4Pv7m8D82A1Xun7xNCKZjJ'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2FXC3k01G6Gw61bmprjgqS'}, 'href': 'https://api.spotify.com/v1/artists/2FXC3k01G6Gw61bmprjgqS', 'id': '2FXC3k01G6Gw61bmprjgqS', 'name': 'Hozier', 'type': 'artist', 'uri': 'spotify:artist:2FXC3k01G6Gw61bmprjgqS'}], 'available_markets': ['AU', 'CA', 'US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4Pv7m8D82A1Xun7xNCKZjJ'}, 'href': 'https://api.spotify.com/v1/albums/4Pv7m8D82A1Xun7xNCKZjJ', 'id': '4Pv7m8D82A1Xun7xNCKZjJ', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2734ca68d59a4a29c856a4a39c2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e024ca68d59a4a29c856a4a39c2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048514ca68d59a4a29c856a4a39c2', 'width': 64}], 'name': 'Hozier (Expanded Edition)', 'release_date': '2014-09-19', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:4Pv7m8D82A1Xun7xNCKZjJ'}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1376,7 +1372,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3qqkHeEhezlIaNj1vFYH2r'}, 'href': 'https://api.spotify.com/v1/artists/3qqkHeEhezlIaNj1vFYH2r', 'id': '3qqkHeEhezlIaNj1vFYH2r', 'name': 'spill tab', 'type': 'artist', 'uri': 'spotify:artist:3qqkHeEhezlIaNj1vFYH2r'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3XUxXmuRsKJAmzCUrBwKR4'}, 'href': 'https://api.spotify.com/v1/albums/3XUxXmuRsKJAmzCUrBwKR4', 'id': '3XUxXmuRsKJAmzCUrBwKR4', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27311af2a43a1a1a2421b840b30', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0211af2a43a1a1a2421b840b30', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485111af2a43a1a1a2421b840b30', 'width': 64}], 'is_playable': True, 'name': 'Cotton Candy', 'release_date': '2020-08-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:3XUxXmuRsKJAmzCUrBwKR4'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3qqkHeEhezlIaNj1vFYH2r'}, 'href': 'https://api.spotify.com/v1/artists/3qqkHeEhezlIaNj1vFYH2r', 'id': '3qqkHeEhezlIaNj1vFYH2r', 'name': 'spill tab', 'type': 'artist', 'uri': 'spotify:artist:3qqkHeEhezlIaNj1vFYH2r'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3XUxXmuRsKJAmzCUrBwKR4'}, 'href': 'https://api.spotify.com/v1/albums/3XUxXmuRsKJAmzCUrBwKR4', 'id': '3XUxXmuRsKJAmzCUrBwKR4', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27311af2a43a1a1a2421b840b30', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0211af2a43a1a1a2421b840b30', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485111af2a43a1a1a2421b840b30', 'width': 64}], 'name': 'Cotton Candy', 'release_date': '2020-08-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:3XUxXmuRsKJAmzCUrBwKR4'}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1427,7 +1423,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1454,7 +1450,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/57vWImR43h4CaDao012Ofp'}, 'href': 'https://api.spotify.com/v1/artists/57vWImR43h4CaDao012Ofp', 'id': '57vWImR43h4CaDao012Ofp', 'name': 'Steve Lacy', 'type': 'artist', 'uri': 'spotify:artist:57vWImR43h4CaDao012Ofp'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/69JpAhN3XgLkOsJ7MCtW4V'}, 'href': 'https://api.spotify.com/v1/albums/69JpAhN3XgLkOsJ7MCtW4V', 'id': '69JpAhN3XgLkOsJ7MCtW4V', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2739904ecb0b1148a128bdd5e36', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e029904ecb0b1148a128bdd5e36', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048519904ecb0b1148a128bdd5e36', 'width': 64}], 'is_playable': True, 'name': 'Bad Habit', 'release_date': '2022-06-29', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:69JpAhN3XgLkOsJ7MCtW4V'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/57vWImR43h4CaDao012Ofp'}, 'href': 'https://api.spotify.com/v1/artists/57vWImR43h4CaDao012Ofp', 'id': '57vWImR43h4CaDao012Ofp', 'name': 'Steve Lacy', 'type': 'artist', 'uri': 'spotify:artist:57vWImR43h4CaDao012Ofp'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/69JpAhN3XgLkOsJ7MCtW4V'}, 'href': 'https://api.spotify.com/v1/albums/69JpAhN3XgLkOsJ7MCtW4V', 'id': '69JpAhN3XgLkOsJ7MCtW4V', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2739904ecb0b1148a128bdd5e36', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e029904ecb0b1148a128bdd5e36', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048519904ecb0b1148a128bdd5e36', 'width': 64}], 'name': 'Bad Habit', 'release_date': '2022-06-29', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:69JpAhN3XgLkOsJ7MCtW4V'}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1505,7 +1501,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1532,7 +1528,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/77mJc3M7ZT5oOVM7gNdXim'}, 'href': 'https://api.spotify.com/v1/artists/77mJc3M7ZT5oOVM7gNdXim', 'id': '77mJc3M7ZT5oOVM7gNdXim', 'name': "Her's", 'type': 'artist', 'uri': 'spotify:artist:77mJc3M7ZT5oOVM7gNdXim'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/03gwRG5IvkStFnjPmgjElw'}, 'href': 'https://api.spotify.com/v1/albums/03gwRG5IvkStFnjPmgjElw', 'id': '03gwRG5IvkStFnjPmgjElw', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc1bc1cf80c431c2bdbde601', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc1bc1cf80c431c2bdbde601', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc1bc1cf80c431c2bdbde601', 'width': 64}], 'is_playable': True, 'name': "Songs of Her's", 'release_date': '2017-05-12', 'release_date_precision': 'day', 'total_tracks': 9, 'type': 'album', 'uri': 'spotify:album:03gwRG5IvkStFnjPmgjElw'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/77mJc3M7ZT5oOVM7gNdXim'}, 'href': 'https://api.spotify.com/v1/artists/77mJc3M7ZT5oOVM7gNdXim', 'id': '77mJc3M7ZT5oOVM7gNdXim', 'name': "Her's", 'type': 'artist', 'uri': 'spotify:artist:77mJc3M7ZT5oOVM7gNdXim'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/03gwRG5IvkStFnjPmgjElw'}, 'href': 'https://api.spotify.com/v1/albums/03gwRG5IvkStFnjPmgjElw', 'id': '03gwRG5IvkStFnjPmgjElw', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc1bc1cf80c431c2bdbde601', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc1bc1cf80c431c2bdbde601', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc1bc1cf80c431c2bdbde601', 'width': 64}], 'name': "Songs of Her's", 'release_date': '2017-05-12', 'release_date_precision': 'day', 'total_tracks': 9, 'type': 'album', 'uri': 'spotify:album:03gwRG5IvkStFnjPmgjElw'}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1610,7 +1606,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1Qp56T7n950O3EGMsSl81D'}, 'href': 'https://api.spotify.com/v1/artists/1Qp56T7n950O3EGMsSl81D', 'id': '1Qp56T7n950O3EGMsSl81D', 'name': 'Ghost', 'type': 'artist', 'uri': 'spotify:artist:1Qp56T7n950O3EGMsSl81D'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6eOWfFjfBPRsAW0ZS4sbaF'}, 'href': 'https://api.spotify.com/v1/albums/6eOWfFjfBPRsAW0ZS4sbaF', 'id': '6eOWfFjfBPRsAW0ZS4sbaF', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273bef9b0a348ea8dd18a581025', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02bef9b0a348ea8dd18a581025', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851bef9b0a348ea8dd18a581025', 'width': 64}], 'is_playable': True, 'name': 'Seven Inches Of Satanic Panic', 'release_date': '2019-09-13', 'release_date_precision': 'day', 'total_tracks': 2, 'type': 'album', 'uri': 'spotify:album:6eOWfFjfBPRsAW0ZS4sbaF'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1Qp56T7n950O3EGMsSl81D'}, 'href': 'https://api.spotify.com/v1/artists/1Qp56T7n950O3EGMsSl81D', 'id': '1Qp56T7n950O3EGMsSl81D', 'name': 'Ghost', 'type': 'artist', 'uri': 'spotify:artist:1Qp56T7n950O3EGMsSl81D'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6eOWfFjfBPRsAW0ZS4sbaF'}, 'href': 'https://api.spotify.com/v1/albums/6eOWfFjfBPRsAW0ZS4sbaF', 'id': '6eOWfFjfBPRsAW0ZS4sbaF', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273bef9b0a348ea8dd18a581025', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02bef9b0a348ea8dd18a581025', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851bef9b0a348ea8dd18a581025', 'width': 64}], 'name': 'Seven Inches Of Satanic Panic', 'release_date': '2019-09-13', 'release_date_precision': 'day', 'total_tracks': 2, 'type': 'album', 'uri': 'spotify:album:6eOWfFjfBPRsAW0ZS4sbaF'}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1661,7 +1657,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1688,7 +1684,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4iMO20EPodreIaEl8qW66y'}, 'href': 'https://api.spotify.com/v1/artists/4iMO20EPodreIaEl8qW66y', 'id': '4iMO20EPodreIaEl8qW66y', 'name': 'Still Woozy', 'type': 'artist', 'uri': 'spotify:artist:4iMO20EPodreIaEl8qW66y'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0QnWm07An8WyO3eupjBDoP'}, 'href': 'https://api.spotify.com/v1/albums/0QnWm07An8WyO3eupjBDoP', 'id': '0QnWm07An8WyO3eupjBDoP', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273178df9e236187d6f1e710f5f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02178df9e236187d6f1e710f5f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851178df9e236187d6f1e710f5f', 'width': 64}], 'is_playable': True, 'name': 'If This Isn’t Nice, I Don’t Know What Is', 'release_date': '2021-08-13', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:0QnWm07An8WyO3eupjBDoP'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4iMO20EPodreIaEl8qW66y'}, 'href': 'https://api.spotify.com/v1/artists/4iMO20EPodreIaEl8qW66y', 'id': '4iMO20EPodreIaEl8qW66y', 'name': 'Still Woozy', 'type': 'artist', 'uri': 'spotify:artist:4iMO20EPodreIaEl8qW66y'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0QnWm07An8WyO3eupjBDoP'}, 'href': 'https://api.spotify.com/v1/albums/0QnWm07An8WyO3eupjBDoP', 'id': '0QnWm07An8WyO3eupjBDoP', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273178df9e236187d6f1e710f5f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02178df9e236187d6f1e710f5f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851178df9e236187d6f1e710f5f', 'width': 64}], 'name': 'If This Isn’t Nice, I Don’t Know What Is', 'release_date': '2021-08-13', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:0QnWm07An8WyO3eupjBDoP'}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1766,7 +1762,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1wHWfSUySUXQV73PnpUBUc'}, 'href': 'https://api.spotify.com/v1/artists/1wHWfSUySUXQV73PnpUBUc', 'id': '1wHWfSUySUXQV73PnpUBUc', 'name': 'Deyaz', 'type': 'artist', 'uri': 'spotify:artist:1wHWfSUySUXQV73PnpUBUc'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5IMKktmqbQNSf4TBoeNhKU'}, 'href': 'https://api.spotify.com/v1/albums/5IMKktmqbQNSf4TBoeNhKU', 'id': '5IMKktmqbQNSf4TBoeNhKU', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736486d6f45300691f57a1a07b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026486d6f45300691f57a1a07b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516486d6f45300691f57a1a07b', 'width': 64}], 'is_playable': True, 'name': 'Helpless', 'release_date': '2021-08-27', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5IMKktmqbQNSf4TBoeNhKU'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1wHWfSUySUXQV73PnpUBUc'}, 'href': 'https://api.spotify.com/v1/artists/1wHWfSUySUXQV73PnpUBUc', 'id': '1wHWfSUySUXQV73PnpUBUc', 'name': 'Deyaz', 'type': 'artist', 'uri': 'spotify:artist:1wHWfSUySUXQV73PnpUBUc'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5IMKktmqbQNSf4TBoeNhKU'}, 'href': 'https://api.spotify.com/v1/albums/5IMKktmqbQNSf4TBoeNhKU', 'id': '5IMKktmqbQNSf4TBoeNhKU', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736486d6f45300691f57a1a07b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026486d6f45300691f57a1a07b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516486d6f45300691f57a1a07b', 'width': 64}], 'name': 'Helpless', 'release_date': '2021-08-27', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5IMKktmqbQNSf4TBoeNhKU'}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1817,7 +1813,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1844,7 +1840,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1NJUWqbiNAk1BPOyQhb2qe'}, 'href': 'https://api.spotify.com/v1/artists/1NJUWqbiNAk1BPOyQhb2qe', 'id': '1NJUWqbiNAk1BPOyQhb2qe', 'name': 'fanclubwallet', 'type': 'artist', 'uri': 'spotify:artist:1NJUWqbiNAk1BPOyQhb2qe'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/1aPZj3S4ORUVOaaFmUgCU6'}, 'href': 'https://api.spotify.com/v1/albums/1aPZj3S4ORUVOaaFmUgCU6', 'id': '1aPZj3S4ORUVOaaFmUgCU6', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2734ef648e1c2adde2c3b33929e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e024ef648e1c2adde2c3b33929e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048514ef648e1c2adde2c3b33929e', 'width': 64}], 'is_playable': True, 'name': 'Car Crash in G Major', 'release_date': '2020-09-25', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1aPZj3S4ORUVOaaFmUgCU6'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1NJUWqbiNAk1BPOyQhb2qe'}, 'href': 'https://api.spotify.com/v1/artists/1NJUWqbiNAk1BPOyQhb2qe', 'id': '1NJUWqbiNAk1BPOyQhb2qe', 'name': 'fanclubwallet', 'type': 'artist', 'uri': 'spotify:artist:1NJUWqbiNAk1BPOyQhb2qe'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/1aPZj3S4ORUVOaaFmUgCU6'}, 'href': 'https://api.spotify.com/v1/albums/1aPZj3S4ORUVOaaFmUgCU6', 'id': '1aPZj3S4ORUVOaaFmUgCU6', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2734ef648e1c2adde2c3b33929e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e024ef648e1c2adde2c3b33929e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048514ef648e1c2adde2c3b33929e', 'width': 64}], 'name': 'Car Crash in G Major', 'release_date': '2020-09-25', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1aPZj3S4ORUVOaaFmUgCU6'}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1895,7 +1891,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1918,7 +1914,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3V0ZQW0dNuVaFtbVYgSI24'}, 'href': 'https://api.spotify.com/v1/artists/3V0ZQW0dNuVaFtbVYgSI24', 'id': '3V0ZQW0dNuVaFtbVYgSI24', 'name': 'Claire Rosinkranz', 'type': 'artist', 'uri': 'spotify:artist:3V0ZQW0dNuVaFtbVYgSI24'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/740ehwZADpfoezUB54h6zE'}, 'href': 'https://api.spotify.com/v1/albums/740ehwZADpfoezUB54h6zE', 'id': '740ehwZADpfoezUB54h6zE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273710984c263de3b646d85ecf9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02710984c263de3b646d85ecf9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851710984c263de3b646d85ecf9', 'width': 64}], 'is_playable': True, 'name': 'Frankenstein', 'release_date': '2021-05-14', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:740ehwZADpfoezUB54h6zE'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3V0ZQW0dNuVaFtbVYgSI24'}, 'href': 'https://api.spotify.com/v1/artists/3V0ZQW0dNuVaFtbVYgSI24', 'id': '3V0ZQW0dNuVaFtbVYgSI24', 'name': 'Claire Rosinkranz', 'type': 'artist', 'uri': 'spotify:artist:3V0ZQW0dNuVaFtbVYgSI24'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/740ehwZADpfoezUB54h6zE'}, 'href': 'https://api.spotify.com/v1/albums/740ehwZADpfoezUB54h6zE', 'id': '740ehwZADpfoezUB54h6zE', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273710984c263de3b646d85ecf9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02710984c263de3b646d85ecf9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851710984c263de3b646d85ecf9', 'width': 64}], 'name': 'Frankenstein', 'release_date': '2021-05-14', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:740ehwZADpfoezUB54h6zE'}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1996,7 +1992,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/59KX7XUUgAOOo5IyDjca0T'}, 'href': 'https://api.spotify.com/v1/artists/59KX7XUUgAOOo5IyDjca0T', 'id': '59KX7XUUgAOOo5IyDjca0T', 'name': 'Verzache', 'type': 'artist', 'uri': 'spotify:artist:59KX7XUUgAOOo5IyDjca0T'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1tWDtF16yatKPBZIS0A2O6'}, 'href': 'https://api.spotify.com/v1/albums/1tWDtF16yatKPBZIS0A2O6', 'id': '1tWDtF16yatKPBZIS0A2O6', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2733db806083e3b649f1d969a4e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e023db806083e3b649f1d969a4e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048513db806083e3b649f1d969a4e', 'width': 64}], 'is_playable': True, 'name': 'My Head is a Moshpit', 'release_date': '2021-03-05', 'release_date_precision': 'day', 'total_tracks': 19, 'type': 'album', 'uri': 'spotify:album:1tWDtF16yatKPBZIS0A2O6'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/59KX7XUUgAOOo5IyDjca0T'}, 'href': 'https://api.spotify.com/v1/artists/59KX7XUUgAOOo5IyDjca0T', 'id': '59KX7XUUgAOOo5IyDjca0T', 'name': 'Verzache', 'type': 'artist', 'uri': 'spotify:artist:59KX7XUUgAOOo5IyDjca0T'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1tWDtF16yatKPBZIS0A2O6'}, 'href': 'https://api.spotify.com/v1/albums/1tWDtF16yatKPBZIS0A2O6', 'id': '1tWDtF16yatKPBZIS0A2O6', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2733db806083e3b649f1d969a4e', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e023db806083e3b649f1d969a4e', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048513db806083e3b649f1d969a4e', 'width': 64}], 'name': 'My Head is a Moshpit', 'release_date': '2021-03-05', 'release_date_precision': 'day', 'total_tracks': 19, 'type': 'album', 'uri': 'spotify:album:1tWDtF16yatKPBZIS0A2O6'}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2047,7 +2043,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2074,7 +2070,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2txHhyCwHjUEpJjWrEyqyX'}, 'href': 'https://api.spotify.com/v1/artists/2txHhyCwHjUEpJjWrEyqyX', 'id': '2txHhyCwHjUEpJjWrEyqyX', 'name': 'Tom Odell', 'type': 'artist', 'uri': 'spotify:artist:2txHhyCwHjUEpJjWrEyqyX'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0Gf1yE895FKK4YWVRuAeg8'}, 'href': 'https://api.spotify.com/v1/albums/0Gf1yE895FKK4YWVRuAeg8', 'id': '0Gf1yE895FKK4YWVRuAeg8', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731917a0f3f4152622a040913f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021917a0f3f4152622a040913f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511917a0f3f4152622a040913f', 'width': 64}], 'is_playable': True, 'name': 'Long Way Down (Deluxe)', 'release_date': '2013-06-24', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:0Gf1yE895FKK4YWVRuAeg8'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/2txHhyCwHjUEpJjWrEyqyX'}, 'href': 'https://api.spotify.com/v1/artists/2txHhyCwHjUEpJjWrEyqyX', 'id': '2txHhyCwHjUEpJjWrEyqyX', 'name': 'Tom Odell', 'type': 'artist', 'uri': 'spotify:artist:2txHhyCwHjUEpJjWrEyqyX'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0Gf1yE895FKK4YWVRuAeg8'}, 'href': 'https://api.spotify.com/v1/albums/0Gf1yE895FKK4YWVRuAeg8', 'id': '0Gf1yE895FKK4YWVRuAeg8', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731917a0f3f4152622a040913f', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021917a0f3f4152622a040913f', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511917a0f3f4152622a040913f', 'width': 64}], 'name': 'Long Way Down (Deluxe)', 'release_date': '2013-06-24', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:0Gf1yE895FKK4YWVRuAeg8'}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2125,7 +2121,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2152,7 +2148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/0m5FakHKCQdA7UN0PIzMcL'}, 'href': 'https://api.spotify.com/v1/artists/0m5FakHKCQdA7UN0PIzMcL', 'id': '0m5FakHKCQdA7UN0PIzMcL', 'name': 'Current Joys', 'type': 'artist', 'uri': 'spotify:artist:0m5FakHKCQdA7UN0PIzMcL'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4TK6lK86akSJC3vQlF9tvi'}, 'href': 'https://api.spotify.com/v1/albums/4TK6lK86akSJC3vQlF9tvi', 'id': '4TK6lK86akSJC3vQlF9tvi', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273b55ee7e4c155178b31fa1eec', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02b55ee7e4c155178b31fa1eec', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851b55ee7e4c155178b31fa1eec', 'width': 64}], 'is_playable': True, 'name': 'Voyager', 'release_date': '2021-05-14', 'release_date_precision': 'day', 'total_tracks': 16, 'type': 'album', 'uri': 'spotify:album:4TK6lK86akSJC3vQlF9tvi'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/0m5FakHKCQdA7UN0PIzMcL'}, 'href': 'https://api.spotify.com/v1/artists/0m5FakHKCQdA7UN0PIzMcL', 'id': '0m5FakHKCQdA7UN0PIzMcL', 'name': 'Current Joys', 'type': 'artist', 'uri': 'spotify:artist:0m5FakHKCQdA7UN0PIzMcL'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4TK6lK86akSJC3vQlF9tvi'}, 'href': 'https://api.spotify.com/v1/albums/4TK6lK86akSJC3vQlF9tvi', 'id': '4TK6lK86akSJC3vQlF9tvi', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273b55ee7e4c155178b31fa1eec', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02b55ee7e4c155178b31fa1eec', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851b55ee7e4c155178b31fa1eec', 'width': 64}], 'name': 'Voyager', 'release_date': '2021-05-14', 'release_date_precision': 'day', 'total_tracks': 16, 'type': 'album', 'uri': 'spotify:album:4TK6lK86akSJC3vQlF9tvi'}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2230,7 +2226,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7jefIIksOi1EazgRTfW2Pk'}, 'href': 'https://api.spotify.com/v1/artists/7jefIIksOi1EazgRTfW2Pk', 'id': '7jefIIksOi1EazgRTfW2Pk', 'name': 'Electric Light Orchestra', 'type': 'artist', 'uri': 'spotify:artist:7jefIIksOi1EazgRTfW2Pk'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3usnShwygMXVZB4IV5dwnU'}, 'href': 'https://api.spotify.com/v1/albums/3usnShwygMXVZB4IV5dwnU', 'id': '3usnShwygMXVZB4IV5dwnU', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2738c4e95986c803791125e8991', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e028c4e95986c803791125e8991', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048518c4e95986c803791125e8991', 'width': 64}], 'is_playable': True, 'name': 'Out of the Blue', 'release_date': '1977', 'release_date_precision': 'year', 'total_tracks': 17, 'type': 'album', 'uri': 'spotify:album:3usnShwygMXVZB4IV5dwnU'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7jefIIksOi1EazgRTfW2Pk'}, 'href': 'https://api.spotify.com/v1/artists/7jefIIksOi1EazgRTfW2Pk', 'id': '7jefIIksOi1EazgRTfW2Pk', 'name': 'Electric Light Orchestra', 'type': 'artist', 'uri': 'spotify:artist:7jefIIksOi1EazgRTfW2Pk'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3usnShwygMXVZB4IV5dwnU'}, 'href': 'https://api.spotify.com/v1/albums/3usnShwygMXVZB4IV5dwnU', 'id': '3usnShwygMXVZB4IV5dwnU', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2738c4e95986c803791125e8991', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e028c4e95986c803791125e8991', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048518c4e95986c803791125e8991', 'width': 64}], 'name': 'Out of the Blue', 'release_date': '1977', 'release_date_precision': 'year', 'total_tracks': 17, 'type': 'album', 'uri': 'spotify:album:3usnShwygMXVZB4IV5dwnU'}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2308,7 +2304,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0KTj6k94XZh0c6IEMfxeWV'}, 'href': 'https://api.spotify.com/v1/albums/0KTj6k94XZh0c6IEMfxeWV', 'id': '0KTj6k94XZh0c6IEMfxeWV', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2739e495fb707973f3390850eea', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e029e495fb707973f3390850eea', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048519e495fb707973f3390850eea', 'width': 64}], 'is_playable': True, 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2020-08-06', 'release_date_precision': 'day', 'total_tracks': 18, 'type': 'album', 'uri': 'spotify:album:0KTj6k94XZh0c6IEMfxeWV'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0KTj6k94XZh0c6IEMfxeWV'}, 'href': 'https://api.spotify.com/v1/albums/0KTj6k94XZh0c6IEMfxeWV', 'id': '0KTj6k94XZh0c6IEMfxeWV', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2739e495fb707973f3390850eea', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e029e495fb707973f3390850eea', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048519e495fb707973f3390850eea', 'width': 64}], 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2020-08-06', 'release_date_precision': 'day', 'total_tracks': 18, 'type': 'album', 'uri': 'spotify:album:0KTj6k94XZh0c6IEMfxeWV'}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2359,7 +2355,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
@@ -2382,7 +2378,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4nr6ytQ4OrEralEu4LhIVp'}, 'href': 'https://api.spotify.com/v1/albums/4nr6ytQ4OrEralEu4LhIVp', 'id': '4nr6ytQ4OrEralEu4LhIVp', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27320154c1edea81bf39988e1a9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0220154c1edea81bf39988e1a9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485120154c1edea81bf39988e1a9', 'width': 64}], 'is_playable': True, 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2021-09-09', 'release_date_precision': 'day', 'total_tracks': 29, 'type': 'album', 'uri': 'spotify:album:4nr6ytQ4OrEralEu4LhIVp'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4nr6ytQ4OrEralEu4LhIVp'}, 'href': 'https://api.spotify.com/v1/albums/4nr6ytQ4OrEralEu4LhIVp', 'id': '4nr6ytQ4OrEralEu4LhIVp', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27320154c1edea81bf39988e1a9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0220154c1edea81bf39988e1a9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485120154c1edea81bf39988e1a9', 'width': 64}], 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2021-09-09', 'release_date_precision': 'day', 'total_tracks': 29, 'type': 'album', 'uri': 'spotify:album:4nr6ytQ4OrEralEu4LhIVp'}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2433,7 +2429,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -2456,7 +2452,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/5Lm1CMoa8VOCBCLZesAcvc'}, 'href': 'https://api.spotify.com/v1/artists/5Lm1CMoa8VOCBCLZesAcvc', 'id': '5Lm1CMoa8VOCBCLZesAcvc', 'name': 'Autoheart', 'type': 'artist', 'uri': 'spotify:artist:5Lm1CMoa8VOCBCLZesAcvc'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/20bkjspFsWh7ziPeFeB9xM'}, 'href': 'https://api.spotify.com/v1/albums/20bkjspFsWh7ziPeFeB9xM', 'id': '20bkjspFsWh7ziPeFeB9xM', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273aa3a7399971d902e90e71095', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02aa3a7399971d902e90e71095', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851aa3a7399971d902e90e71095', 'width': 64}], 'is_playable': True, 'name': 'Punch', 'release_date': '2013-07-15', 'release_date_precision': 'day', 'total_tracks': 12, 'type': 'album', 'uri': 'spotify:album:20bkjspFsWh7ziPeFeB9xM'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/5Lm1CMoa8VOCBCLZesAcvc'}, 'href': 'https://api.spotify.com/v1/artists/5Lm1CMoa8VOCBCLZesAcvc', 'id': '5Lm1CMoa8VOCBCLZesAcvc', 'name': 'Autoheart', 'type': 'artist', 'uri': 'spotify:artist:5Lm1CMoa8VOCBCLZesAcvc'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/20bkjspFsWh7ziPeFeB9xM'}, 'href': 'https://api.spotify.com/v1/albums/20bkjspFsWh7ziPeFeB9xM', 'id': '20bkjspFsWh7ziPeFeB9xM', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273aa3a7399971d902e90e71095', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02aa3a7399971d902e90e71095', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851aa3a7399971d902e90e71095', 'width': 64}], 'name': 'Punch', 'release_date': '2013-07-15', 'release_date_precision': 'day', 'total_tracks': 12, 'type': 'album', 'uri': 'spotify:album:20bkjspFsWh7ziPeFeB9xM'}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2507,7 +2503,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
@@ -2530,7 +2526,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6qb9MDR0lfsN9a2pw77uJy'}, 'href': 'https://api.spotify.com/v1/albums/6qb9MDR0lfsN9a2pw77uJy', 'id': '6qb9MDR0lfsN9a2pw77uJy', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273ec3d15eab5bd77027abc4b23', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02ec3d15eab5bd77027abc4b23', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851ec3d15eab5bd77027abc4b23', 'width': 64}], 'is_playable': True, 'name': 'How To Be A Human Being', 'release_date': '2016-08-26', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:6qb9MDR0lfsN9a2pw77uJy'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6qb9MDR0lfsN9a2pw77uJy'}, 'href': 'https://api.spotify.com/v1/albums/6qb9MDR0lfsN9a2pw77uJy', 'id': '6qb9MDR0lfsN9a2pw77uJy', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273ec3d15eab5bd77027abc4b23', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02ec3d15eab5bd77027abc4b23', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851ec3d15eab5bd77027abc4b23', 'width': 64}], 'name': 'How To Be A Human Being', 'release_date': '2016-08-26', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:6qb9MDR0lfsN9a2pw77uJy'}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2608,7 +2604,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7t51dSX8ZkKC7VoKRd0lME'}, 'href': 'https://api.spotify.com/v1/artists/7t51dSX8ZkKC7VoKRd0lME', 'id': '7t51dSX8ZkKC7VoKRd0lME', 'name': 'Asaf Avidan', 'type': 'artist', 'uri': 'spotify:artist:7t51dSX8ZkKC7VoKRd0lME'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/5abaNg0SJPEF7EST0RjY9F'}, 'href': 'https://api.spotify.com/v1/artists/5abaNg0SJPEF7EST0RjY9F', 'id': '5abaNg0SJPEF7EST0RjY9F', 'name': 'The Mojos', 'type': 'artist', 'uri': 'spotify:artist:5abaNg0SJPEF7EST0RjY9F'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/01e2lCvLZ4fLUIRy68nptH'}, 'href': 'https://api.spotify.com/v1/artists/01e2lCvLZ4fLUIRy68nptH', 'id': '01e2lCvLZ4fLUIRy68nptH', 'name': 'Wankelmut', 'type': 'artist', 'uri': 'spotify:artist:01e2lCvLZ4fLUIRy68nptH'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6ZtATnsRYU8ZP4JD0dH0fs'}, 'href': 'https://api.spotify.com/v1/albums/6ZtATnsRYU8ZP4JD0dH0fs', 'id': '6ZtATnsRYU8ZP4JD0dH0fs', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2738546b5bb49e3e4c80cf6b6b0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e028546b5bb49e3e4c80cf6b6b0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048518546b5bb49e3e4c80cf6b6b0', 'width': 64}], 'is_playable': True, 'name': 'One Day / Reckoning Song (Wankelmut Remix)', 'release_date': '2012-08-03', 'release_date_precision': 'day', 'total_tracks': 3, 'type': 'album', 'uri': 'spotify:album:6ZtATnsRYU8ZP4JD0dH0fs'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/7t51dSX8ZkKC7VoKRd0lME'}, 'href': 'https://api.spotify.com/v1/artists/7t51dSX8ZkKC7VoKRd0lME', 'id': '7t51dSX8ZkKC7VoKRd0lME', 'name': 'Asaf Avidan', 'type': 'artist', 'uri': 'spotify:artist:7t51dSX8ZkKC7VoKRd0lME'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/5abaNg0SJPEF7EST0RjY9F'}, 'href': 'https://api.spotify.com/v1/artists/5abaNg0SJPEF7EST0RjY9F', 'id': '5abaNg0SJPEF7EST0RjY9F', 'name': 'The Mojos', 'type': 'artist', 'uri': 'spotify:artist:5abaNg0SJPEF7EST0RjY9F'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/01e2lCvLZ4fLUIRy68nptH'}, 'href': 'https://api.spotify.com/v1/artists/01e2lCvLZ4fLUIRy68nptH', 'id': '01e2lCvLZ4fLUIRy68nptH', 'name': 'Wankelmut', 'type': 'artist', 'uri': 'spotify:artist:01e2lCvLZ4fLUIRy68nptH'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6ZtATnsRYU8ZP4JD0dH0fs'}, 'href': 'https://api.spotify.com/v1/albums/6ZtATnsRYU8ZP4JD0dH0fs', 'id': '6ZtATnsRYU8ZP4JD0dH0fs', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2738546b5bb49e3e4c80cf6b6b0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e028546b5bb49e3e4c80cf6b6b0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048518546b5bb49e3e4c80cf6b6b0', 'width': 64}], 'name': 'One Day / Reckoning Song (Wankelmut Remix)', 'release_date': '2012-08-03', 'release_date_precision': 'day', 'total_tracks': 3, 'type': 'album', 'uri': 'spotify:album:6ZtATnsRYU8ZP4JD0dH0fs'}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2686,7 +2682,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/20JZFwl6HVl6yg8a4H3ZqK'}, 'href': 'https://api.spotify.com/v1/artists/20JZFwl6HVl6yg8a4H3ZqK', 'id': '20JZFwl6HVl6yg8a4H3ZqK', 'name': 'Panic! At The Disco', 'type': 'artist', 'uri': 'spotify:artist:20JZFwl6HVl6yg8a4H3ZqK'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6twKQ0EsUJHVlAr6XBylrj'}, 'href': 'https://api.spotify.com/v1/albums/6twKQ0EsUJHVlAr6XBylrj', 'id': '6twKQ0EsUJHVlAr6XBylrj', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27323152d9337d6c57b116ed13a', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0223152d9337d6c57b116ed13a', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485123152d9337d6c57b116ed13a', 'width': 64}], 'is_playable': True, 'name': 'Death of a Bachelor', 'release_date': '2016-01-15', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:6twKQ0EsUJHVlAr6XBylrj'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/20JZFwl6HVl6yg8a4H3ZqK'}, 'href': 'https://api.spotify.com/v1/artists/20JZFwl6HVl6yg8a4H3ZqK', 'id': '20JZFwl6HVl6yg8a4H3ZqK', 'name': 'Panic! At The Disco', 'type': 'artist', 'uri': 'spotify:artist:20JZFwl6HVl6yg8a4H3ZqK'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6twKQ0EsUJHVlAr6XBylrj'}, 'href': 'https://api.spotify.com/v1/albums/6twKQ0EsUJHVlAr6XBylrj', 'id': '6twKQ0EsUJHVlAr6XBylrj', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27323152d9337d6c57b116ed13a', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0223152d9337d6c57b116ed13a', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485123152d9337d6c57b116ed13a', 'width': 64}], 'name': 'Death of a Bachelor', 'release_date': '2016-01-15', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:6twKQ0EsUJHVlAr6XBylrj'}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2764,7 +2760,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3mMogqf2JyBUQZxFZlC79w'}, 'href': 'https://api.spotify.com/v1/artists/3mMogqf2JyBUQZxFZlC79w', 'id': '3mMogqf2JyBUQZxFZlC79w', 'name': 'Arden Jones', 'type': 'artist', 'uri': 'spotify:artist:3mMogqf2JyBUQZxFZlC79w'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3o4JOV2P8fueS8vdkaivbO'}, 'href': 'https://api.spotify.com/v1/albums/3o4JOV2P8fueS8vdkaivbO', 'id': '3o4JOV2P8fueS8vdkaivbO', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27376d33adea67d3a2e2502bab5', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0276d33adea67d3a2e2502bab5', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485176d33adea67d3a2e2502bab5', 'width': 64}], 'is_playable': True, 'name': 'age tape 1', 'release_date': '2022-02-03', 'release_date_precision': 'day', 'total_tracks': 3, 'type': 'album', 'uri': 'spotify:album:3o4JOV2P8fueS8vdkaivbO'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3mMogqf2JyBUQZxFZlC79w'}, 'href': 'https://api.spotify.com/v1/artists/3mMogqf2JyBUQZxFZlC79w', 'id': '3mMogqf2JyBUQZxFZlC79w', 'name': 'Arden Jones', 'type': 'artist', 'uri': 'spotify:artist:3mMogqf2JyBUQZxFZlC79w'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/3o4JOV2P8fueS8vdkaivbO'}, 'href': 'https://api.spotify.com/v1/albums/3o4JOV2P8fueS8vdkaivbO', 'id': '3o4JOV2P8fueS8vdkaivbO', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27376d33adea67d3a2e2502bab5', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0276d33adea67d3a2e2502bab5', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485176d33adea67d3a2e2502bab5', 'width': 64}], 'name': 'age tape 1', 'release_date': '2022-02-03', 'release_date_precision': 'day', 'total_tracks': 3, 'type': 'album', 'uri': 'spotify:album:3o4JOV2P8fueS8vdkaivbO'}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2815,7 +2811,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2842,7 +2838,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3qqkHeEhezlIaNj1vFYH2r'}, 'href': 'https://api.spotify.com/v1/artists/3qqkHeEhezlIaNj1vFYH2r', 'id': '3qqkHeEhezlIaNj1vFYH2r', 'name': 'spill tab', 'type': 'artist', 'uri': 'spotify:artist:3qqkHeEhezlIaNj1vFYH2r'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/1hVCtTKZ96eJByKOEjKsbz'}, 'href': 'https://api.spotify.com/v1/albums/1hVCtTKZ96eJByKOEjKsbz', 'id': '1hVCtTKZ96eJByKOEjKsbz', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273f3cbbd65177b9f61cdda5582', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02f3cbbd65177b9f61cdda5582', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851f3cbbd65177b9f61cdda5582', 'width': 64}], 'is_playable': True, 'name': 'Cotton Candy', 'release_date': '2020-08-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1hVCtTKZ96eJByKOEjKsbz'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3qqkHeEhezlIaNj1vFYH2r'}, 'href': 'https://api.spotify.com/v1/artists/3qqkHeEhezlIaNj1vFYH2r', 'id': '3qqkHeEhezlIaNj1vFYH2r', 'name': 'spill tab', 'type': 'artist', 'uri': 'spotify:artist:3qqkHeEhezlIaNj1vFYH2r'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/1hVCtTKZ96eJByKOEjKsbz'}, 'href': 'https://api.spotify.com/v1/albums/1hVCtTKZ96eJByKOEjKsbz', 'id': '1hVCtTKZ96eJByKOEjKsbz', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273f3cbbd65177b9f61cdda5582', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02f3cbbd65177b9f61cdda5582', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851f3cbbd65177b9f61cdda5582', 'width': 64}], 'name': 'Cotton Candy', 'release_date': '2020-08-05', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:1hVCtTKZ96eJByKOEjKsbz'}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2893,7 +2889,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -2916,7 +2912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3xTWaGPtvulmX73dfT71J1'}, 'href': 'https://api.spotify.com/v1/artists/3xTWaGPtvulmX73dfT71J1', 'id': '3xTWaGPtvulmX73dfT71J1', 'name': 'Posh Chocolates', 'type': 'artist', 'uri': 'spotify:artist:3xTWaGPtvulmX73dfT71J1'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/299IQB4kbejJwVROtq0jBK'}, 'href': 'https://api.spotify.com/v1/albums/299IQB4kbejJwVROtq0jBK', 'id': '299IQB4kbejJwVROtq0jBK', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27319eb0502d68d29e77f2100cf', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0219eb0502d68d29e77f2100cf', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485119eb0502d68d29e77f2100cf', 'width': 64}], 'is_playable': True, 'name': 'Gravity', 'release_date': '2021-08-06', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:299IQB4kbejJwVROtq0jBK'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3xTWaGPtvulmX73dfT71J1'}, 'href': 'https://api.spotify.com/v1/artists/3xTWaGPtvulmX73dfT71J1', 'id': '3xTWaGPtvulmX73dfT71J1', 'name': 'Posh Chocolates', 'type': 'artist', 'uri': 'spotify:artist:3xTWaGPtvulmX73dfT71J1'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/299IQB4kbejJwVROtq0jBK'}, 'href': 'https://api.spotify.com/v1/albums/299IQB4kbejJwVROtq0jBK', 'id': '299IQB4kbejJwVROtq0jBK', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27319eb0502d68d29e77f2100cf', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0219eb0502d68d29e77f2100cf', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485119eb0502d68d29e77f2100cf', 'width': 64}], 'name': 'Gravity', 'release_date': '2021-08-06', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:299IQB4kbejJwVROtq0jBK'}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2990,7 +2986,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6s22t5Y3prQHyaHWUN1R1C'}, 'href': 'https://api.spotify.com/v1/artists/6s22t5Y3prQHyaHWUN1R1C', 'id': '6s22t5Y3prQHyaHWUN1R1C', 'name': 'AJR', 'type': 'artist', 'uri': 'spotify:artist:6s22t5Y3prQHyaHWUN1R1C'}], 'available_markets': ['US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1y2AzG31F4CuCKQ1rpIzaI'}, 'href': 'https://api.spotify.com/v1/albums/1y2AzG31F4CuCKQ1rpIzaI', 'id': '1y2AzG31F4CuCKQ1rpIzaI', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc9511f26808c1eee73b414d', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc9511f26808c1eee73b414d', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc9511f26808c1eee73b414d', 'width': 64}], 'is_playable': True, 'name': 'OK ORCHESTRA', 'release_date': '2021-03-26', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1y2AzG31F4CuCKQ1rpIzaI'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6s22t5Y3prQHyaHWUN1R1C'}, 'href': 'https://api.spotify.com/v1/artists/6s22t5Y3prQHyaHWUN1R1C', 'id': '6s22t5Y3prQHyaHWUN1R1C', 'name': 'AJR', 'type': 'artist', 'uri': 'spotify:artist:6s22t5Y3prQHyaHWUN1R1C'}], 'available_markets': ['US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1y2AzG31F4CuCKQ1rpIzaI'}, 'href': 'https://api.spotify.com/v1/albums/1y2AzG31F4CuCKQ1rpIzaI', 'id': '1y2AzG31F4CuCKQ1rpIzaI', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc9511f26808c1eee73b414d', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc9511f26808c1eee73b414d', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc9511f26808c1eee73b414d', 'width': 64}], 'name': 'OK ORCHESTRA', 'release_date': '2021-03-26', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1y2AzG31F4CuCKQ1rpIzaI'}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3068,7 +3064,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6s22t5Y3prQHyaHWUN1R1C'}, 'href': 'https://api.spotify.com/v1/artists/6s22t5Y3prQHyaHWUN1R1C', 'id': '6s22t5Y3prQHyaHWUN1R1C', 'name': 'AJR', 'type': 'artist', 'uri': 'spotify:artist:6s22t5Y3prQHyaHWUN1R1C'}], 'available_markets': ['US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1y2AzG31F4CuCKQ1rpIzaI'}, 'href': 'https://api.spotify.com/v1/albums/1y2AzG31F4CuCKQ1rpIzaI', 'id': '1y2AzG31F4CuCKQ1rpIzaI', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc9511f26808c1eee73b414d', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc9511f26808c1eee73b414d', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc9511f26808c1eee73b414d', 'width': 64}], 'is_playable': True, 'name': 'OK ORCHESTRA', 'release_date': '2021-03-26', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1y2AzG31F4CuCKQ1rpIzaI'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/6s22t5Y3prQHyaHWUN1R1C'}, 'href': 'https://api.spotify.com/v1/artists/6s22t5Y3prQHyaHWUN1R1C', 'id': '6s22t5Y3prQHyaHWUN1R1C', 'name': 'AJR', 'type': 'artist', 'uri': 'spotify:artist:6s22t5Y3prQHyaHWUN1R1C'}], 'available_markets': ['US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/1y2AzG31F4CuCKQ1rpIzaI'}, 'href': 'https://api.spotify.com/v1/albums/1y2AzG31F4CuCKQ1rpIzaI', 'id': '1y2AzG31F4CuCKQ1rpIzaI', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273fc9511f26808c1eee73b414d', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02fc9511f26808c1eee73b414d', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851fc9511f26808c1eee73b414d', 'width': 64}], 'name': 'OK ORCHESTRA', 'release_date': '2021-03-26', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:1y2AzG31F4CuCKQ1rpIzaI'}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3119,7 +3115,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3146,7 +3142,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4mLJ3XfOM5FPjSAWdQ2Jk7'}, 'href': 'https://api.spotify.com/v1/artists/4mLJ3XfOM5FPjSAWdQ2Jk7', 'id': '4mLJ3XfOM5FPjSAWdQ2Jk7', 'name': 'Dr. Dog', 'type': 'artist', 'uri': 'spotify:artist:4mLJ3XfOM5FPjSAWdQ2Jk7'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/16XswZ18xhMs8qUTN51mRl'}, 'href': 'https://api.spotify.com/v1/albums/16XswZ18xhMs8qUTN51mRl', 'id': '16XswZ18xhMs8qUTN51mRl', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2730478062bc04df0947d232fcb', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e020478062bc04df0947d232fcb', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048510478062bc04df0947d232fcb', 'width': 64}], 'is_playable': True, 'name': 'Shame, Shame (Deluxe Edition)', 'release_date': '2010-11-02', 'release_date_precision': 'day', 'total_tracks': 18, 'type': 'album', 'uri': 'spotify:album:16XswZ18xhMs8qUTN51mRl'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4mLJ3XfOM5FPjSAWdQ2Jk7'}, 'href': 'https://api.spotify.com/v1/artists/4mLJ3XfOM5FPjSAWdQ2Jk7', 'id': '4mLJ3XfOM5FPjSAWdQ2Jk7', 'name': 'Dr. Dog', 'type': 'artist', 'uri': 'spotify:artist:4mLJ3XfOM5FPjSAWdQ2Jk7'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/16XswZ18xhMs8qUTN51mRl'}, 'href': 'https://api.spotify.com/v1/albums/16XswZ18xhMs8qUTN51mRl', 'id': '16XswZ18xhMs8qUTN51mRl', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2730478062bc04df0947d232fcb', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e020478062bc04df0947d232fcb', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048510478062bc04df0947d232fcb', 'width': 64}], 'name': 'Shame, Shame (Deluxe Edition)', 'release_date': '2010-11-02', 'release_date_precision': 'day', 'total_tracks': 18, 'type': 'album', 'uri': 'spotify:album:16XswZ18xhMs8qUTN51mRl'}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3224,7 +3220,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/5BvJzeQpmsdsFp4HGUYUEx'}, 'href': 'https://api.spotify.com/v1/artists/5BvJzeQpmsdsFp4HGUYUEx', 'id': '5BvJzeQpmsdsFp4HGUYUEx', 'name': 'Vampire Weekend', 'type': 'artist', 'uri': 'spotify:artist:5BvJzeQpmsdsFp4HGUYUEx'}], 'available_markets': ['CA', 'US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7n8NJkGKAl2np1bXiRn0CY'}, 'href': 'https://api.spotify.com/v1/albums/7n8NJkGKAl2np1bXiRn0CY', 'id': '7n8NJkGKAl2np1bXiRn0CY', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273eabfe5d94aad05cb6485444b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02eabfe5d94aad05cb6485444b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851eabfe5d94aad05cb6485444b', 'width': 64}], 'is_playable': True, 'name': 'Vampire Weekend', 'release_date': '2008-01-29', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:7n8NJkGKAl2np1bXiRn0CY'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/5BvJzeQpmsdsFp4HGUYUEx'}, 'href': 'https://api.spotify.com/v1/artists/5BvJzeQpmsdsFp4HGUYUEx', 'id': '5BvJzeQpmsdsFp4HGUYUEx', 'name': 'Vampire Weekend', 'type': 'artist', 'uri': 'spotify:artist:5BvJzeQpmsdsFp4HGUYUEx'}], 'available_markets': ['CA', 'US'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7n8NJkGKAl2np1bXiRn0CY'}, 'href': 'https://api.spotify.com/v1/albums/7n8NJkGKAl2np1bXiRn0CY', 'id': '7n8NJkGKAl2np1bXiRn0CY', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273eabfe5d94aad05cb6485444b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02eabfe5d94aad05cb6485444b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851eabfe5d94aad05cb6485444b', 'width': 64}], 'name': 'Vampire Weekend', 'release_date': '2008-01-29', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:7n8NJkGKAl2np1bXiRn0CY'}</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3302,7 +3298,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/61lyPtntblHJvA7FMMhi7E'}, 'href': 'https://api.spotify.com/v1/artists/61lyPtntblHJvA7FMMhi7E', 'id': '61lyPtntblHJvA7FMMhi7E', 'name': 'Duke Dumont', 'type': 'artist', 'uri': 'spotify:artist:61lyPtntblHJvA7FMMhi7E'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5APvbPGki6FOQO6rNEuXCv'}, 'href': 'https://api.spotify.com/v1/albums/5APvbPGki6FOQO6rNEuXCv', 'id': '5APvbPGki6FOQO6rNEuXCv', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732500bcdc1790d13e7ac1a0c0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022500bcdc1790d13e7ac1a0c0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512500bcdc1790d13e7ac1a0c0', 'width': 64}], 'is_playable': True, 'name': 'Ocean Drive', 'release_date': '2015-07-31', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5APvbPGki6FOQO6rNEuXCv'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/61lyPtntblHJvA7FMMhi7E'}, 'href': 'https://api.spotify.com/v1/artists/61lyPtntblHJvA7FMMhi7E', 'id': '61lyPtntblHJvA7FMMhi7E', 'name': 'Duke Dumont', 'type': 'artist', 'uri': 'spotify:artist:61lyPtntblHJvA7FMMhi7E'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5APvbPGki6FOQO6rNEuXCv'}, 'href': 'https://api.spotify.com/v1/albums/5APvbPGki6FOQO6rNEuXCv', 'id': '5APvbPGki6FOQO6rNEuXCv', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732500bcdc1790d13e7ac1a0c0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022500bcdc1790d13e7ac1a0c0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512500bcdc1790d13e7ac1a0c0', 'width': 64}], 'name': 'Ocean Drive', 'release_date': '2015-07-31', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:5APvbPGki6FOQO6rNEuXCv'}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3380,7 +3376,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3rWZHrfrsPBxVy692yAIxF'}, 'href': 'https://api.spotify.com/v1/artists/3rWZHrfrsPBxVy692yAIxF', 'id': '3rWZHrfrsPBxVy692yAIxF', 'name': 'WILLOW', 'type': 'artist', 'uri': 'spotify:artist:3rWZHrfrsPBxVy692yAIxF'}], 'available_markets': ['AD', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BD', 'BE', 'BG', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'IE', 'IS', 'IT', 'JM', 'JP', 'KE', 'KH', 'KI', 'KM', 'KN', 'KR', 'LA', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NR', 'NZ', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PT', 'PW', 'PY', 'RO', 'RS', 'RW', 'SB', 'SC', 'SE', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TG', 'TH', 'TJ', 'TL', 'TO', 'TT', 'TV', 'TW', 'TZ', 'UG', 'US', 'UY', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0wfne2JijoxJm0qzJd3V5h'}, 'href': 'https://api.spotify.com/v1/albums/0wfne2JijoxJm0qzJd3V5h', 'id': '0wfne2JijoxJm0qzJd3V5h', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736ee651e65c3766d80e7fcab7', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026ee651e65c3766d80e7fcab7', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516ee651e65c3766d80e7fcab7', 'width': 64}], 'is_playable': True, 'name': 'ARDIPITHECUS', 'release_date': '2015-01-11', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:0wfne2JijoxJm0qzJd3V5h'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3rWZHrfrsPBxVy692yAIxF'}, 'href': 'https://api.spotify.com/v1/artists/3rWZHrfrsPBxVy692yAIxF', 'id': '3rWZHrfrsPBxVy692yAIxF', 'name': 'WILLOW', 'type': 'artist', 'uri': 'spotify:artist:3rWZHrfrsPBxVy692yAIxF'}], 'available_markets': ['AD', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BD', 'BE', 'BG', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'IE', 'IS', 'IT', 'JM', 'JP', 'KE', 'KH', 'KI', 'KM', 'KN', 'KR', 'LA', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NR', 'NZ', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PT', 'PW', 'PY', 'RO', 'RS', 'RW', 'SB', 'SC', 'SE', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TG', 'TH', 'TJ', 'TL', 'TO', 'TT', 'TV', 'TW', 'TZ', 'UG', 'US', 'UY', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0wfne2JijoxJm0qzJd3V5h'}, 'href': 'https://api.spotify.com/v1/albums/0wfne2JijoxJm0qzJd3V5h', 'id': '0wfne2JijoxJm0qzJd3V5h', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2736ee651e65c3766d80e7fcab7', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e026ee651e65c3766d80e7fcab7', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048516ee651e65c3766d80e7fcab7', 'width': 64}], 'name': 'ARDIPITHECUS', 'release_date': '2015-01-11', 'release_date_precision': 'day', 'total_tracks': 15, 'type': 'album', 'uri': 'spotify:album:0wfne2JijoxJm0qzJd3V5h'}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3458,7 +3454,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/7mxF1FNLd12k1e5MpkMdKg'}, 'href': 'https://api.spotify.com/v1/albums/7mxF1FNLd12k1e5MpkMdKg', 'id': '7mxF1FNLd12k1e5MpkMdKg', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27326695b7ddc3264a22f36cd8b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0226695b7ddc3264a22f36cd8b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485126695b7ddc3264a22f36cd8b', 'width': 64}], 'is_playable': True, 'name': 'Beacon', 'release_date': '2012-08-31', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:7mxF1FNLd12k1e5MpkMdKg'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/7mxF1FNLd12k1e5MpkMdKg'}, 'href': 'https://api.spotify.com/v1/albums/7mxF1FNLd12k1e5MpkMdKg', 'id': '7mxF1FNLd12k1e5MpkMdKg', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27326695b7ddc3264a22f36cd8b', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0226695b7ddc3264a22f36cd8b', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485126695b7ddc3264a22f36cd8b', 'width': 64}], 'name': 'Beacon', 'release_date': '2012-08-31', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:7mxF1FNLd12k1e5MpkMdKg'}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3509,7 +3505,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
@@ -3532,7 +3528,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'is_playable': True, 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3583,7 +3579,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -3606,7 +3602,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'is_playable': True, 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3657,7 +3653,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
@@ -3680,7 +3676,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'is_playable': True, 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/536BYVgOnRky0xjsPT96zl'}, 'href': 'https://api.spotify.com/v1/artists/536BYVgOnRky0xjsPT96zl', 'id': '536BYVgOnRky0xjsPT96zl', 'name': 'Two Door Cinema Club', 'type': 'artist', 'uri': 'spotify:artist:536BYVgOnRky0xjsPT96zl'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0SD7kwnJEC2oDzQBKEHQnH'}, 'href': 'https://api.spotify.com/v1/albums/0SD7kwnJEC2oDzQBKEHQnH', 'id': '0SD7kwnJEC2oDzQBKEHQnH', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2731d579563f814da8508cafad2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e021d579563f814da8508cafad2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048511d579563f814da8508cafad2', 'width': 64}], 'name': 'Tourist History', 'release_date': '2010-02-17', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:0SD7kwnJEC2oDzQBKEHQnH'}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3731,7 +3727,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
@@ -3754,7 +3750,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/23xqmJEN3oVxwzqtNIyR5m'}, 'href': 'https://api.spotify.com/v1/artists/23xqmJEN3oVxwzqtNIyR5m', 'id': '23xqmJEN3oVxwzqtNIyR5m', 'name': 'AnnenMayKantereit', 'type': 'artist', 'uri': 'spotify:artist:23xqmJEN3oVxwzqtNIyR5m'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/5wD0owYApRtYmjPWavWKvb'}, 'href': 'https://api.spotify.com/v1/artists/5wD0owYApRtYmjPWavWKvb', 'id': '5wD0owYApRtYmjPWavWKvb', 'name': 'Giant Rooks', 'type': 'artist', 'uri': 'spotify:artist:5wD0owYApRtYmjPWavWKvb'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7ClPGbXY81egfNn8H1hDAg'}, 'href': 'https://api.spotify.com/v1/albums/7ClPGbXY81egfNn8H1hDAg', 'id': '7ClPGbXY81egfNn8H1hDAg', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732186eb1b0b5436f858c0508c', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022186eb1b0b5436f858c0508c', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512186eb1b0b5436f858c0508c', 'width': 64}], 'is_playable': True, 'name': "Tom's Diner", 'release_date': '2019-06-28', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:7ClPGbXY81egfNn8H1hDAg'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/23xqmJEN3oVxwzqtNIyR5m'}, 'href': 'https://api.spotify.com/v1/artists/23xqmJEN3oVxwzqtNIyR5m', 'id': '23xqmJEN3oVxwzqtNIyR5m', 'name': 'AnnenMayKantereit', 'type': 'artist', 'uri': 'spotify:artist:23xqmJEN3oVxwzqtNIyR5m'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/5wD0owYApRtYmjPWavWKvb'}, 'href': 'https://api.spotify.com/v1/artists/5wD0owYApRtYmjPWavWKvb', 'id': '5wD0owYApRtYmjPWavWKvb', 'name': 'Giant Rooks', 'type': 'artist', 'uri': 'spotify:artist:5wD0owYApRtYmjPWavWKvb'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/7ClPGbXY81egfNn8H1hDAg'}, 'href': 'https://api.spotify.com/v1/albums/7ClPGbXY81egfNn8H1hDAg', 'id': '7ClPGbXY81egfNn8H1hDAg', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2732186eb1b0b5436f858c0508c', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e022186eb1b0b5436f858c0508c', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048512186eb1b0b5436f858c0508c', 'width': 64}], 'name': "Tom's Diner", 'release_date': '2019-06-28', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:7ClPGbXY81egfNn8H1hDAg'}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3832,7 +3828,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3Fe3pszR2t4TOBVz41B1WR'}, 'href': 'https://api.spotify.com/v1/artists/3Fe3pszR2t4TOBVz41B1WR', 'id': '3Fe3pszR2t4TOBVz41B1WR', 'name': 'The Oh Hellos', 'type': 'artist', 'uri': 'spotify:artist:3Fe3pszR2t4TOBVz41B1WR'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6wYIs564dOi2lOT9bGYPLK'}, 'href': 'https://api.spotify.com/v1/albums/6wYIs564dOi2lOT9bGYPLK', 'id': '6wYIs564dOi2lOT9bGYPLK', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27339521e60d8d11783d9f5e3b1', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0239521e60d8d11783d9f5e3b1', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485139521e60d8d11783d9f5e3b1', 'width': 64}], 'is_playable': True, 'name': 'Dear Wormwood', 'release_date': '2015-10-16', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:6wYIs564dOi2lOT9bGYPLK'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/3Fe3pszR2t4TOBVz41B1WR'}, 'href': 'https://api.spotify.com/v1/artists/3Fe3pszR2t4TOBVz41B1WR', 'id': '3Fe3pszR2t4TOBVz41B1WR', 'name': 'The Oh Hellos', 'type': 'artist', 'uri': 'spotify:artist:3Fe3pszR2t4TOBVz41B1WR'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/6wYIs564dOi2lOT9bGYPLK'}, 'href': 'https://api.spotify.com/v1/albums/6wYIs564dOi2lOT9bGYPLK', 'id': '6wYIs564dOi2lOT9bGYPLK', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27339521e60d8d11783d9f5e3b1', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0239521e60d8d11783d9f5e3b1', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485139521e60d8d11783d9f5e3b1', 'width': 64}], 'name': 'Dear Wormwood', 'release_date': '2015-10-16', 'release_date_precision': 'day', 'total_tracks': 13, 'type': 'album', 'uri': 'spotify:album:6wYIs564dOi2lOT9bGYPLK'}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3910,7 +3906,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1gl0S9pS0Zw0qfa14rDD3D'}, 'href': 'https://api.spotify.com/v1/artists/1gl0S9pS0Zw0qfa14rDD3D', 'id': '1gl0S9pS0Zw0qfa14rDD3D', 'name': 'Surf Curse', 'type': 'artist', 'uri': 'spotify:artist:1gl0S9pS0Zw0qfa14rDD3D'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4cAEWgTGIU7kL1sgbivyGY'}, 'href': 'https://api.spotify.com/v1/albums/4cAEWgTGIU7kL1sgbivyGY', 'id': '4cAEWgTGIU7kL1sgbivyGY', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273419b86b4ab35e2948af8bec2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02419b86b4ab35e2948af8bec2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851419b86b4ab35e2948af8bec2', 'width': 64}], 'is_playable': True, 'name': 'Buds', 'release_date': '2015-05-10', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:4cAEWgTGIU7kL1sgbivyGY'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/1gl0S9pS0Zw0qfa14rDD3D'}, 'href': 'https://api.spotify.com/v1/artists/1gl0S9pS0Zw0qfa14rDD3D', 'id': '1gl0S9pS0Zw0qfa14rDD3D', 'name': 'Surf Curse', 'type': 'artist', 'uri': 'spotify:artist:1gl0S9pS0Zw0qfa14rDD3D'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4cAEWgTGIU7kL1sgbivyGY'}, 'href': 'https://api.spotify.com/v1/albums/4cAEWgTGIU7kL1sgbivyGY', 'id': '4cAEWgTGIU7kL1sgbivyGY', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273419b86b4ab35e2948af8bec2', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02419b86b4ab35e2948af8bec2', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851419b86b4ab35e2948af8bec2', 'width': 64}], 'name': 'Buds', 'release_date': '2015-05-10', 'release_date_precision': 'day', 'total_tracks': 10, 'type': 'album', 'uri': 'spotify:album:4cAEWgTGIU7kL1sgbivyGY'}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3984,7 +3980,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/770glnH67Mk4u2D41sxAhx'}, 'href': 'https://api.spotify.com/v1/artists/770glnH67Mk4u2D41sxAhx', 'id': '770glnH67Mk4u2D41sxAhx', 'name': 'VANO 3000', 'type': 'artist', 'uri': 'spotify:artist:770glnH67Mk4u2D41sxAhx'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/65dGLGjkw3UbddUg2GKQoZ'}, 'href': 'https://api.spotify.com/v1/artists/65dGLGjkw3UbddUg2GKQoZ', 'id': '65dGLGjkw3UbddUg2GKQoZ', 'name': 'BADBADNOTGOOD', 'type': 'artist', 'uri': 'spotify:artist:65dGLGjkw3UbddUg2GKQoZ'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/6K4I1MPd7m8IztUdtrF4YU'}, 'href': 'https://api.spotify.com/v1/artists/6K4I1MPd7m8IztUdtrF4YU', 'id': '6K4I1MPd7m8IztUdtrF4YU', 'name': 'Samuel T. Herring', 'type': 'artist', 'uri': 'spotify:artist:6K4I1MPd7m8IztUdtrF4YU'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/0qD1Ymect5I2EamO4HE8ZB'}, 'href': 'https://api.spotify.com/v1/albums/0qD1Ymect5I2EamO4HE8ZB', 'id': '0qD1Ymect5I2EamO4HE8ZB', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2730e99065b58152f36730caf33', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e020e99065b58152f36730caf33', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048510e99065b58152f36730caf33', 'width': 64}], 'is_playable': True, 'name': 'Running Away', 'release_date': '2021-06-21', 'release_date_precision': 'day', 'total_tracks': 2, 'type': 'album', 'uri': 'spotify:album:0qD1Ymect5I2EamO4HE8ZB'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/770glnH67Mk4u2D41sxAhx'}, 'href': 'https://api.spotify.com/v1/artists/770glnH67Mk4u2D41sxAhx', 'id': '770glnH67Mk4u2D41sxAhx', 'name': 'VANO 3000', 'type': 'artist', 'uri': 'spotify:artist:770glnH67Mk4u2D41sxAhx'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/65dGLGjkw3UbddUg2GKQoZ'}, 'href': 'https://api.spotify.com/v1/artists/65dGLGjkw3UbddUg2GKQoZ', 'id': '65dGLGjkw3UbddUg2GKQoZ', 'name': 'BADBADNOTGOOD', 'type': 'artist', 'uri': 'spotify:artist:65dGLGjkw3UbddUg2GKQoZ'}, {'external_urls': {'spotify': 'https://open.spotify.com/artist/6K4I1MPd7m8IztUdtrF4YU'}, 'href': 'https://api.spotify.com/v1/artists/6K4I1MPd7m8IztUdtrF4YU', 'id': '6K4I1MPd7m8IztUdtrF4YU', 'name': 'Samuel T. Herring', 'type': 'artist', 'uri': 'spotify:artist:6K4I1MPd7m8IztUdtrF4YU'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/0qD1Ymect5I2EamO4HE8ZB'}, 'href': 'https://api.spotify.com/v1/albums/0qD1Ymect5I2EamO4HE8ZB', 'id': '0qD1Ymect5I2EamO4HE8ZB', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2730e99065b58152f36730caf33', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e020e99065b58152f36730caf33', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048510e99065b58152f36730caf33', 'width': 64}], 'name': 'Running Away', 'release_date': '2021-06-21', 'release_date_precision': 'day', 'total_tracks': 2, 'type': 'album', 'uri': 'spotify:album:0qD1Ymect5I2EamO4HE8ZB'}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3994,7 +3990,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['AR', 'AU', 'AT', 'BE', 'BO', 'BR', 'BG', 'CA', 'CL', 'CO', 'CR', 'CY', 'CZ', 'DK', 'DO', 'DE', 'EC', 'EE', 'SV', 'FI', 'FR', 'GR', 'GT', 'HN', 'HK', 'HU', 'IS', 'IE', 'IT', 'LV', 'LT', 'LU', 'MY', 'MT', 'MX', 'NL', 'NZ', 'NI', 'NO', 'PA', 'PY', 'PE', 'PH', 'PL', 'PT', 'SG', 'SK', 'ES', 'SE', 'CH', 'TW', 'TR', 'UY', 'US', 'GB', 'AD', 'LI', 'MC', 'ID', 'JP', 'TH', 'VN', 'RO', 'IL', 'ZA', 'SA', 'AE', 'BH', 'QA', 'OM', 'KW', 'EG', 'MA', 'DZ', 'TN', 'LB', 'JO', 'PS', 'IN', 'BY', 'KZ', 'MD', 'UA', 'AL', 'BA', 'HR', 'ME', 'MK', 'RS', 'SI', 'KR', 'BD', 'PK', 'LK', 'GH', 'KE', 'NG', 'TZ', 'UG', 'AG', 'AM', 'BS', 'BB', 'BZ', 'BT', 'BW', 'BF', 'CV', 'CW', 'DM', 'FJ', 'GM', 'GE', 'GD', 'GW', 'GY', 'HT', 'JM', 'KI', 'LS', 'LR', 'MW', 'MV', 'ML', 'MH', 'FM', 'NA', 'NR', 'NE', 'PW', 'PG', 'WS', 'SM', 'ST', 'SN', 'SC', 'SL', 'SB', 'KN', 'LC', 'VC', 'SR', 'TL', 'TO', 'TT', 'TV', 'VU', 'AZ', 'BN', 'BI', 'KH', 'CM', 'TD', 'KM', 'GQ', 'SZ', 'GA', 'GN', 'KG', 'LA', 'MO', 'MR', 'MN', 'NP', 'RW', 'TG', 'UZ', 'ZW', 'BJ', 'MG', 'MU', 'MZ', 'AO', 'CI', 'DJ', 'ZM', 'CD', 'CG', 'IQ', 'LY', 'TJ', 'VE', 'ET', 'XK']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -4035,13 +4031,9 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>69</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>https://p.scdn.co/mp3-preview/2868197a47ce12901f9afcb0d86c7c0e21b5ab1f?cid=779ed5b4de6141a5a256aa58005d47ee</t>
-        </is>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
         <v>1</v>
       </c>
@@ -4062,7 +4054,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5bfpRtBW7RNRdsm3tRyl3R'}, 'href': 'https://api.spotify.com/v1/albums/5bfpRtBW7RNRdsm3tRyl3R', 'id': '5bfpRtBW7RNRdsm3tRyl3R', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273712701c5e263efc8726b1464', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02712701c5e263efc8726b1464', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851712701c5e263efc8726b1464', 'width': 64}], 'is_playable': True, 'name': 'Dreamland', 'release_date': '2020-08-07', 'release_date_precision': 'day', 'total_tracks': 16, 'type': 'album', 'uri': 'spotify:album:5bfpRtBW7RNRdsm3tRyl3R'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/5bfpRtBW7RNRdsm3tRyl3R'}, 'href': 'https://api.spotify.com/v1/albums/5bfpRtBW7RNRdsm3tRyl3R', 'id': '5bfpRtBW7RNRdsm3tRyl3R', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273712701c5e263efc8726b1464', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02712701c5e263efc8726b1464', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851712701c5e263efc8726b1464', 'width': 64}], 'name': 'Dreamland', 'release_date': '2020-08-07', 'release_date_precision': 'day', 'total_tracks': 16, 'type': 'album', 'uri': 'spotify:album:5bfpRtBW7RNRdsm3tRyl3R'}</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4113,11 +4105,11 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://p.scdn.co/mp3-preview/009736095406f82b99e1ac13a58d43e6cefaab00?cid=779ed5b4de6141a5a256aa58005d47ee</t>
+          <t>https://p.scdn.co/mp3-preview/95b66be007a12d5c228aa840f6178c532212d531?cid=779ed5b4de6141a5a256aa58005d47ee</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -4140,7 +4132,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/14IOe7ahxQPTwUYUQX3IFi'}, 'href': 'https://api.spotify.com/v1/albums/14IOe7ahxQPTwUYUQX3IFi', 'id': '14IOe7ahxQPTwUYUQX3IFi', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737a293e6787c6d200c5077cd0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027a293e6787c6d200c5077cd0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517a293e6787c6d200c5077cd0', 'width': 64}], 'is_playable': True, 'name': 'ZABA', 'release_date': '2014-06-03', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:14IOe7ahxQPTwUYUQX3IFi'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/14IOe7ahxQPTwUYUQX3IFi'}, 'href': 'https://api.spotify.com/v1/albums/14IOe7ahxQPTwUYUQX3IFi', 'id': '14IOe7ahxQPTwUYUQX3IFi', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b2737a293e6787c6d200c5077cd0', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e027a293e6787c6d200c5077cd0', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d000048517a293e6787c6d200c5077cd0', 'width': 64}], 'name': 'ZABA', 'release_date': '2014-06-03', 'release_date_precision': 'day', 'total_tracks': 11, 'type': 'album', 'uri': 'spotify:album:14IOe7ahxQPTwUYUQX3IFi'}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4218,7 +4210,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4nr6ytQ4OrEralEu4LhIVp'}, 'href': 'https://api.spotify.com/v1/albums/4nr6ytQ4OrEralEu4LhIVp', 'id': '4nr6ytQ4OrEralEu4LhIVp', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27320154c1edea81bf39988e1a9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0220154c1edea81bf39988e1a9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485120154c1edea81bf39988e1a9', 'width': 64}], 'is_playable': True, 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2021-09-09', 'release_date_precision': 'day', 'total_tracks': 29, 'type': 'album', 'uri': 'spotify:album:4nr6ytQ4OrEralEu4LhIVp'}</t>
+          <t>{'album_group': 'album', 'album_type': 'album', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': [], 'external_urls': {'spotify': 'https://open.spotify.com/album/4nr6ytQ4OrEralEu4LhIVp'}, 'href': 'https://api.spotify.com/v1/albums/4nr6ytQ4OrEralEu4LhIVp', 'id': '4nr6ytQ4OrEralEu4LhIVp', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b27320154c1edea81bf39988e1a9', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e0220154c1edea81bf39988e1a9', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d0000485120154c1edea81bf39988e1a9', 'width': 64}], 'name': 'Dreamland (+ Bonus Levels)', 'release_date': '2021-09-09', 'release_date_precision': 'day', 'total_tracks': 29, 'type': 'album', 'uri': 'spotify:album:4nr6ytQ4OrEralEu4LhIVp'}</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4269,7 +4261,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -4292,7 +4284,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4Rmv2DGTZuxsULDbhU5L49'}, 'href': 'https://api.spotify.com/v1/albums/4Rmv2DGTZuxsULDbhU5L49', 'id': '4Rmv2DGTZuxsULDbhU5L49', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273cb4d977459c7ea7498a4711c', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02cb4d977459c7ea7498a4711c', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851cb4d977459c7ea7498a4711c', 'width': 64}], 'is_playable': True, 'name': "I Don't Wanna Talk (I Just Wanna Dance)", 'release_date': '2021-09-10', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:4Rmv2DGTZuxsULDbhU5L49'}</t>
+          <t>{'album_group': 'single', 'album_type': 'single', 'artists': [{'external_urls': {'spotify': 'https://open.spotify.com/artist/4yvcSjfu4PC0CYQyLy4wSq'}, 'href': 'https://api.spotify.com/v1/artists/4yvcSjfu4PC0CYQyLy4wSq', 'id': '4yvcSjfu4PC0CYQyLy4wSq', 'name': 'Glass Animals', 'type': 'artist', 'uri': 'spotify:artist:4yvcSjfu4PC0CYQyLy4wSq'}], 'available_markets': ['AD', 'AE', 'AG', 'AL', 'AM', 'AO', 'AR', 'AT', 'AU', 'AZ', 'BA', 'BB', 'BD', 'BE', 'BF', 'BG', 'BH', 'BI', 'BJ', 'BN', 'BO', 'BR', 'BS', 'BT', 'BW', 'BY', 'BZ', 'CA', 'CD', 'CG', 'CH', 'CI', 'CL', 'CM', 'CO', 'CR', 'CV', 'CW', 'CY', 'CZ', 'DE', 'DJ', 'DK', 'DM', 'DO', 'DZ', 'EC', 'EE', 'EG', 'ES', 'ET', 'FI', 'FJ', 'FM', 'FR', 'GA', 'GB', 'GD', 'GE', 'GH', 'GM', 'GN', 'GQ', 'GR', 'GT', 'GW', 'GY', 'HK', 'HN', 'HR', 'HT', 'HU', 'ID', 'IE', 'IL', 'IN', 'IQ', 'IS', 'IT', 'JM', 'JO', 'JP', 'KE', 'KG', 'KH', 'KI', 'KM', 'KN', 'KR', 'KW', 'KZ', 'LA', 'LB', 'LC', 'LI', 'LK', 'LR', 'LS', 'LT', 'LU', 'LV', 'LY', 'MA', 'MC', 'MD', 'ME', 'MG', 'MH', 'MK', 'ML', 'MN', 'MO', 'MR', 'MT', 'MU', 'MV', 'MW', 'MX', 'MY', 'MZ', 'NA', 'NE', 'NG', 'NI', 'NL', 'NO', 'NP', 'NR', 'NZ', 'OM', 'PA', 'PE', 'PG', 'PH', 'PK', 'PL', 'PS', 'PT', 'PW', 'PY', 'QA', 'RO', 'RS', 'RW', 'SA', 'SB', 'SC', 'SE', 'SG', 'SI', 'SK', 'SL', 'SM', 'SN', 'SR', 'ST', 'SV', 'SZ', 'TD', 'TG', 'TH', 'TJ', 'TL', 'TN', 'TO', 'TR', 'TT', 'TV', 'TW', 'TZ', 'UA', 'UG', 'US', 'UY', 'UZ', 'VC', 'VE', 'VN', 'VU', 'WS', 'XK', 'ZA', 'ZM', 'ZW'], 'external_urls': {'spotify': 'https://open.spotify.com/album/4Rmv2DGTZuxsULDbhU5L49'}, 'href': 'https://api.spotify.com/v1/albums/4Rmv2DGTZuxsULDbhU5L49', 'id': '4Rmv2DGTZuxsULDbhU5L49', 'images': [{'height': 640, 'url': 'https://i.scdn.co/image/ab67616d0000b273cb4d977459c7ea7498a4711c', 'width': 640}, {'height': 300, 'url': 'https://i.scdn.co/image/ab67616d00001e02cb4d977459c7ea7498a4711c', 'width': 300}, {'height': 64, 'url': 'https://i.scdn.co/image/ab67616d00004851cb4d977459c7ea7498a4711c', 'width': 64}], 'name': "I Don't Wanna Talk (I Just Wanna Dance)", 'release_date': '2021-09-10', 'release_date_precision': 'day', 'total_tracks': 1, 'type': 'album', 'uri': 'spotify:album:4Rmv2DGTZuxsULDbhU5L49'}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4343,7 +4335,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
